--- a/systematic_search/Web_of_Science_search.xlsx
+++ b/systematic_search/Web_of_Science_search.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Alex\metaRL\Systematic search\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/ucjuac5_ucl_ac_uk/Documents/metaRL/systematic_search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C90C0BA-D168-4372-8EF5-A30A087038B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C90C0BA-D168-4372-8EF5-A30A087038B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="14400" windowHeight="10755" xr2:uid="{0C1D250C-6E4A-4013-B0A5-3476CA83FD26}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0C1D250C-6E4A-4013-B0A5-3476CA83FD26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -8872,7 +8875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1345E5B2-A3AC-44BE-888C-875AB41A3E01}">
   <dimension ref="A1:BU348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I344" sqref="I344"/>
     </sheetView>
   </sheetViews>
